--- a/Excel/dashboard.xlsx
+++ b/Excel/dashboard.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9180" windowHeight="7335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9180" windowHeight="7335" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Pivot tables" sheetId="15" r:id="rId1"/>
-    <sheet name="Dashbooard" sheetId="19" r:id="rId2"/>
-    <sheet name="SaleData" sheetId="14" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="21" r:id="rId1"/>
+    <sheet name="Pivot tables" sheetId="15" r:id="rId2"/>
+    <sheet name="Dashbooard" sheetId="19" r:id="rId3"/>
+    <sheet name="SaleData" sheetId="14" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="sale">Table1[#All]</definedName>
@@ -24,14 +26,15 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId5"/>
-        <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="40">
   <si>
     <t>Region</t>
   </si>
@@ -287,7 +290,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -355,6 +358,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -363,7 +370,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -764,6 +774,261 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:pattFill prst="ltUpDiag">
+            <a:fgClr>
+              <a:schemeClr val="accent1"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="lt1"/>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln w="34925" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="accent1"/>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:pattFill prst="ltUpDiag">
+            <a:fgClr>
+              <a:schemeClr val="accent1"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="lt1"/>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln w="34925" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="accent1"/>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:pattFill prst="ltUpDiag">
+            <a:fgClr>
+              <a:schemeClr val="accent1"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="lt1"/>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln w="34925" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="accent1"/>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
           <a:ln w="34925" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="tx2">
@@ -1042,11 +1307,11 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-907578720"/>
-        <c:axId val="-907591232"/>
+        <c:axId val="338105968"/>
+        <c:axId val="338108688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-907578720"/>
+        <c:axId val="338105968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907591232"/>
+        <c:crossAx val="338108688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1096,7 +1361,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-907591232"/>
+        <c:axId val="338108688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1400,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907578720"/>
+        <c:crossAx val="338105968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1661,9 +1926,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1714,6 +1977,371 @@
           <c:showBubbleSize val="0"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="0.25277777777777777"/>
+              <c:y val="2.7777777777777776E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="0.25277777777777777"/>
+              <c:y val="2.7777777777777776E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="0.25277777777777777"/>
+              <c:y val="2.7777777777777776E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2379,11 +3007,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="52"/>
-        <c:axId val="-907586336"/>
-        <c:axId val="-907588512"/>
+        <c:axId val="59846448"/>
+        <c:axId val="59852432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-907586336"/>
+        <c:axId val="59846448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2426,7 +3054,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907588512"/>
+        <c:crossAx val="59852432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2434,7 +3062,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-907588512"/>
+        <c:axId val="59852432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,7 +3072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-907586336"/>
+        <c:crossAx val="59846448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2853,11 +3481,11 @@
         </c:dLbls>
         <c:gapWidth val="197"/>
         <c:overlap val="-27"/>
-        <c:axId val="-907579808"/>
-        <c:axId val="-907592320"/>
+        <c:axId val="59845904"/>
+        <c:axId val="59851344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-907579808"/>
+        <c:axId val="59845904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2900,7 +3528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907592320"/>
+        <c:crossAx val="59851344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2908,7 +3536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-907592320"/>
+        <c:axId val="59851344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2918,7 +3546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-907579808"/>
+        <c:crossAx val="59845904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2996,6 +3624,366 @@
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[dashboard.xlsx]Pivot tables!PivotTable3</c:name>
+    <c:fmtId val="16"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot tables'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot tables'!$H$4:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>David</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>John</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Luis</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Shelli</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sigal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Steven</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot tables'!$I$4:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>"Rs. "##\,##\,"L"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>140955</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206373</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125037.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>199690</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="337949360"/>
+        <c:axId val="337952080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="337949360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337952080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="337952080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;Rs. &quot;##\,##\,&quot;L&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337949360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent5">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
   </c:extLst>
@@ -3162,6 +4150,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
   <cs:axisTitle>
@@ -5186,6 +6214,511 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7585,6 +9118,656 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="276225"/>
+          <a:ext cx="9305925" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524250" y="542925"/>
+          <a:ext cx="4048125" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SALES</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> DASHBOARD </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="3600">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305801" y="333375"/>
+          <a:ext cx="1047750" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="1685925"/>
+          <a:ext cx="1590675" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562099" y="1962150"/>
+          <a:ext cx="1266825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1,20,3000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="1724025"/>
+          <a:ext cx="1038226" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Total</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Profit</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Item 2"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Item 2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="971550" y="2847975"/>
+              <a:ext cx="1828800" cy="1771650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3838575" y="1933575"/>
+          <a:ext cx="4419600" cy="2600325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5038725" y="2076450"/>
+          <a:ext cx="1819275" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Sales By Person</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="DELL 4" refreshedDate="45602.684719212964" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="43">
   <cacheSource type="worksheet">
@@ -8249,7 +10432,7 @@
     <dataField name="Sum of Sale_amt" fld="8" baseField="4" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="11">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -8258,7 +10441,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="11">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -8310,7 +10493,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="164" showAll="0"/>
@@ -8372,8 +10555,8 @@
   <dataFields count="1">
     <dataField name="Sum of Sale_amt" fld="8" baseField="1" baseItem="0" numFmtId="165"/>
   </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="4" format="6" series="1">
+  <chartFormats count="2">
+    <chartFormat chart="4" format="13" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8382,7 +10565,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="7">
+    <chartFormat chart="4" format="14">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -8390,18 +10573,6 @@
           </reference>
           <reference field="1" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -8417,7 +10588,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="K3:L9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="164" showAll="0"/>
@@ -8501,7 +10672,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="12" format="2" series="1">
+    <chartFormat chart="12" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8521,7 +10692,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="H3:I10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="164" showAll="0"/>
@@ -8598,7 +10769,7 @@
   <dataFields count="1">
     <dataField name="Sum of Sale_amt" fld="8" baseField="3" baseItem="0" numFmtId="165"/>
   </dataFields>
-  <chartFormats count="3">
+  <chartFormats count="6">
     <chartFormat chart="5" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -8618,6 +10789,33 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="7" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8719,24 +10917,49 @@
 </slicers>
 </file>
 
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Item 2" cache="Slicer_Item" caption="Item" style="SlicerStyleLight5" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J44" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:J25" totalsRowShown="0">
+  <autoFilter ref="A1:J25"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" name="Region"/>
+    <tableColumn id="3" name="Manager"/>
+    <tableColumn id="4" name="SalesMan"/>
+    <tableColumn id="5" name="Item"/>
+    <tableColumn id="6" name="Units sold"/>
+    <tableColumn id="7" name="Cost of Goods"/>
+    <tableColumn id="8" name="Unit_price"/>
+    <tableColumn id="9" name="Sale_amt"/>
+    <tableColumn id="10" name="Profit"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J44" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:J44"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="8"/>
-    <tableColumn id="2" name="Region" dataDxfId="7"/>
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" name="Region" dataDxfId="8"/>
     <tableColumn id="3" name="Manager"/>
-    <tableColumn id="4" name="SalesMan" dataDxfId="6"/>
-    <tableColumn id="5" name="Item" dataDxfId="5"/>
-    <tableColumn id="6" name="Units sold" dataDxfId="4"/>
-    <tableColumn id="7" name="Cost of Goods" dataDxfId="3">
+    <tableColumn id="4" name="SalesMan" dataDxfId="7"/>
+    <tableColumn id="5" name="Item" dataDxfId="6"/>
+    <tableColumn id="6" name="Units sold" dataDxfId="5"/>
+    <tableColumn id="7" name="Cost of Goods" dataDxfId="4">
       <calculatedColumnFormula>H2-(H2*10%)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Unit_price" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="9" name="Sale_amt" dataDxfId="1">
+    <tableColumn id="8" name="Unit_price" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="9" name="Sale_amt" dataDxfId="2">
       <calculatedColumnFormula>F2*H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Profit" dataDxfId="0">
+    <tableColumn id="10" name="Profit" dataDxfId="1">
       <calculatedColumnFormula>I2-(G2*F2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9031,10 +11254,837 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="28">
+        <v>43820</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>450</v>
+      </c>
+      <c r="H2">
+        <v>500</v>
+      </c>
+      <c r="I2">
+        <v>14000</v>
+      </c>
+      <c r="J2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
+        <v>43123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>450</v>
+      </c>
+      <c r="H3">
+        <v>500</v>
+      </c>
+      <c r="I3">
+        <v>25000</v>
+      </c>
+      <c r="J3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
+        <v>43140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>1078.2</v>
+      </c>
+      <c r="H4">
+        <v>1198</v>
+      </c>
+      <c r="I4">
+        <v>43128</v>
+      </c>
+      <c r="J4">
+        <v>4312.7999999999956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
+        <v>43157</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>202.5</v>
+      </c>
+      <c r="H5">
+        <v>225</v>
+      </c>
+      <c r="I5">
+        <v>6075</v>
+      </c>
+      <c r="J5">
+        <v>607.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
+        <v>43803</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>94</v>
+      </c>
+      <c r="G6">
+        <v>450</v>
+      </c>
+      <c r="H6">
+        <v>500</v>
+      </c>
+      <c r="I6">
+        <v>47000</v>
+      </c>
+      <c r="J6">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <v>43786</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>450</v>
+      </c>
+      <c r="H7">
+        <v>500</v>
+      </c>
+      <c r="I7">
+        <v>5500</v>
+      </c>
+      <c r="J7">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>43208</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <v>1078.2</v>
+      </c>
+      <c r="H8">
+        <v>1198</v>
+      </c>
+      <c r="I8">
+        <v>89850</v>
+      </c>
+      <c r="J8">
+        <v>8985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>43225</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>90</v>
+      </c>
+      <c r="G9">
+        <v>1078.2</v>
+      </c>
+      <c r="H9">
+        <v>1198</v>
+      </c>
+      <c r="I9">
+        <v>107820</v>
+      </c>
+      <c r="J9">
+        <v>10782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>43769</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>1078.2</v>
+      </c>
+      <c r="H10">
+        <v>1198</v>
+      </c>
+      <c r="I10">
+        <v>16772</v>
+      </c>
+      <c r="J10">
+        <v>1677.1999999999989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>43718</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>1078.2</v>
+      </c>
+      <c r="H11">
+        <v>1198</v>
+      </c>
+      <c r="I11">
+        <v>8386</v>
+      </c>
+      <c r="J11">
+        <v>838.59999999999945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>43276</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>90</v>
+      </c>
+      <c r="G12">
+        <v>1078.2</v>
+      </c>
+      <c r="H12">
+        <v>1198</v>
+      </c>
+      <c r="I12">
+        <v>107820</v>
+      </c>
+      <c r="J12">
+        <v>10782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
+        <v>43684</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>42</v>
+      </c>
+      <c r="G13">
+        <v>52.65</v>
+      </c>
+      <c r="H13">
+        <v>58.5</v>
+      </c>
+      <c r="I13">
+        <v>2457</v>
+      </c>
+      <c r="J13">
+        <v>245.70000000000027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
+        <v>43667</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>55</v>
+      </c>
+      <c r="G14">
+        <v>52.65</v>
+      </c>
+      <c r="H14">
+        <v>58.5</v>
+      </c>
+      <c r="I14">
+        <v>3217.5</v>
+      </c>
+      <c r="J14">
+        <v>321.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>43633</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>112.5</v>
+      </c>
+      <c r="H15">
+        <v>125</v>
+      </c>
+      <c r="I15">
+        <v>625</v>
+      </c>
+      <c r="J15">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
+        <v>43344</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>112.5</v>
+      </c>
+      <c r="H16">
+        <v>125</v>
+      </c>
+      <c r="I16">
+        <v>250</v>
+      </c>
+      <c r="J16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>43616</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>80</v>
+      </c>
+      <c r="G17">
+        <v>450</v>
+      </c>
+      <c r="H17">
+        <v>500</v>
+      </c>
+      <c r="I17">
+        <v>40000</v>
+      </c>
+      <c r="J17">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>43378</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <v>450</v>
+      </c>
+      <c r="H18">
+        <v>500</v>
+      </c>
+      <c r="I18">
+        <v>14000</v>
+      </c>
+      <c r="J18">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>43599</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>53</v>
+      </c>
+      <c r="G19">
+        <v>1078.2</v>
+      </c>
+      <c r="H19">
+        <v>1198</v>
+      </c>
+      <c r="I19">
+        <v>63494</v>
+      </c>
+      <c r="J19">
+        <v>6349.3999999999942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
+        <v>43565</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>66</v>
+      </c>
+      <c r="G20">
+        <v>1078.2</v>
+      </c>
+      <c r="H20">
+        <v>1198</v>
+      </c>
+      <c r="I20">
+        <v>79068</v>
+      </c>
+      <c r="J20">
+        <v>7906.8000000000029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
+        <v>43429</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>96</v>
+      </c>
+      <c r="G21">
+        <v>52.65</v>
+      </c>
+      <c r="H21">
+        <v>58.5</v>
+      </c>
+      <c r="I21">
+        <v>5616</v>
+      </c>
+      <c r="J21">
+        <v>561.60000000000036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
+        <v>43446</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>67</v>
+      </c>
+      <c r="G22">
+        <v>1078.2</v>
+      </c>
+      <c r="H22">
+        <v>1198</v>
+      </c>
+      <c r="I22">
+        <v>80266</v>
+      </c>
+      <c r="J22">
+        <v>8026.5999999999913</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>43548</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>52.65</v>
+      </c>
+      <c r="H23">
+        <v>58.5</v>
+      </c>
+      <c r="I23">
+        <v>2925</v>
+      </c>
+      <c r="J23">
+        <v>292.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="28">
+        <v>43480</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>46</v>
+      </c>
+      <c r="G24">
+        <v>450</v>
+      </c>
+      <c r="H24">
+        <v>500</v>
+      </c>
+      <c r="I24">
+        <v>23000</v>
+      </c>
+      <c r="J24">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
+        <v>43497</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>87</v>
+      </c>
+      <c r="G25">
+        <v>450</v>
+      </c>
+      <c r="H25">
+        <v>500</v>
+      </c>
+      <c r="I25">
+        <v>43500</v>
+      </c>
+      <c r="J25">
+        <v>4350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9221,12 +12271,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="W2"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="80.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9247,7 +12297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
@@ -10854,6 +13904,34 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="27"/>
+  </cols>
+  <sheetData/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1048576"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <Structure xmlns="thqs">{"Id":"00000000-0000-0000-0000-000000000000","ParentId":null,"Name":"Root","IsExpanded":false,"Children":[]}</Structure>
 </file>
